--- a/biology/Botanique/Aeschynomene_cristata/Aeschynomene_cristata.xlsx
+++ b/biology/Botanique/Aeschynomene_cristata/Aeschynomene_cristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aeschynomene cristata est une espèce de plantes de la famille des Fabaceae et du genre Aeschynomene présente en Afrique tropicale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aeschynomene cristata est une espèce de plantes de la famille des Fabaceae et du genre Aeschynomene présente en Afrique tropicale.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe ou sous-arbuste, vivace, avec des tiges souples immergées et des branches dressées formant une sorte de taillis dense allant jusqu'à 0,9-3(-6) m de hauteur[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe ou sous-arbuste, vivace, avec des tiges souples immergées et des branches dressées formant une sorte de taillis dense allant jusqu'à 0,9-3(-6) m de hauteur,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est répandue en Afrique tropicale de l'ouest, de l'est, du centre et du sud, également à Madagascar[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est répandue en Afrique tropicale de l'ouest, de l'est, du centre et du sud, également à Madagascar.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la rencontre dans les marécages permanents ou temporaires, à proximité des barrages, des lacs et des rivières, à une altitude entre 0 et 1 250 m[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la rencontre dans les marécages permanents ou temporaires, à proximité des barrages, des lacs et des rivières, à une altitude entre 0 et 1 250 m.
 </t>
         </is>
       </c>
@@ -604,14 +622,16 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 juin 2020)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 juin 2020) :
 variété Aeschynomene cristata var. cristata
 variété Aeschynomene cristata var. pubescens
-Selon The Plant List            (22 juin 2020)[1] :
+Selon The Plant List            (22 juin 2020) :
 variété Aeschynomene cristata var. pubescens Leon
-Selon Tropicos                                           (22 juin 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (22 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 variété Aeschynomene cristata var. cristata
 variété Aeschynomene cristata var. glabrata Vatke
 variété Aeschynomene cristata var. pubescens J. Léonard</t>
